--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1102">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3198,6 +3198,31 @@
   </si>
   <si>
     <t>필기 숨기기</t>
+  </si>
+  <si>
+    <t>notice_gesture_title</t>
+  </si>
+  <si>
+    <t>스마트 제스처가 추가됐습니다!</t>
+  </si>
+  <si>
+    <t>notice_gesture_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금 스마트 제스처 버튼을 누른 후, \n종이나 부기 보드에 스마트 제스처를 이용해보세요 !
+</t>
+  </si>
+  <si>
+    <t>notice_gesture_cancel</t>
+  </si>
+  <si>
+    <t>넘어가기</t>
+  </si>
+  <si>
+    <t>notice_gesture_success</t>
+  </si>
+  <si>
+    <t>더 알아보기</t>
   </si>
   <si>
     <t>title</t>
@@ -14105,10 +14130,14 @@
     <row r="237">
       <c r="A237" s="43"/>
       <c r="B237" s="116"/>
-      <c r="C237" s="114"/>
+      <c r="C237" s="200" t="s">
+        <v>1055</v>
+      </c>
       <c r="D237" s="113"/>
       <c r="E237" s="114"/>
-      <c r="F237" s="204"/>
+      <c r="F237" s="201" t="s">
+        <v>1056</v>
+      </c>
       <c r="G237" s="197"/>
       <c r="H237" s="197"/>
       <c r="I237" s="197"/>
@@ -14133,10 +14162,14 @@
     <row r="238">
       <c r="A238" s="43"/>
       <c r="B238" s="116"/>
-      <c r="C238" s="114"/>
+      <c r="C238" s="200" t="s">
+        <v>1057</v>
+      </c>
       <c r="D238" s="113"/>
       <c r="E238" s="114"/>
-      <c r="F238" s="204"/>
+      <c r="F238" s="201" t="s">
+        <v>1058</v>
+      </c>
       <c r="G238" s="197"/>
       <c r="H238" s="197"/>
       <c r="I238" s="197"/>
@@ -14161,10 +14194,14 @@
     <row r="239">
       <c r="A239" s="43"/>
       <c r="B239" s="116"/>
-      <c r="C239" s="114"/>
+      <c r="C239" s="200" t="s">
+        <v>1059</v>
+      </c>
       <c r="D239" s="113"/>
       <c r="E239" s="114"/>
-      <c r="F239" s="204"/>
+      <c r="F239" s="201" t="s">
+        <v>1060</v>
+      </c>
       <c r="G239" s="197"/>
       <c r="H239" s="197"/>
       <c r="I239" s="197"/>
@@ -14189,10 +14226,14 @@
     <row r="240">
       <c r="A240" s="43"/>
       <c r="B240" s="116"/>
-      <c r="C240" s="114"/>
+      <c r="C240" s="200" t="s">
+        <v>1061</v>
+      </c>
       <c r="D240" s="113"/>
       <c r="E240" s="114"/>
-      <c r="F240" s="204"/>
+      <c r="F240" s="201" t="s">
+        <v>1062</v>
+      </c>
       <c r="G240" s="197"/>
       <c r="H240" s="197"/>
       <c r="I240" s="197"/>
@@ -37119,22 +37160,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="206" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C1" s="206" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="D1" s="206" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="E1" s="206" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="F1" s="206" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="G1" s="207" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="H1" s="208"/>
       <c r="I1" s="208"/>
@@ -37158,21 +37199,21 @@
     </row>
     <row r="2">
       <c r="A2" s="208" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="B2" s="208"/>
       <c r="C2" s="208"/>
       <c r="D2" s="175" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="E2" s="209" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="F2" s="210" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="G2" s="211" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="H2" s="208"/>
       <c r="I2" s="208"/>
@@ -37200,10 +37241,10 @@
       <c r="C3" s="208"/>
       <c r="D3" s="208"/>
       <c r="E3" s="209" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="F3" s="212" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="G3" s="213"/>
       <c r="H3" s="208"/>
@@ -37232,10 +37273,10 @@
       <c r="C4" s="208"/>
       <c r="D4" s="208"/>
       <c r="E4" s="209" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="F4" s="212" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="G4" s="213"/>
       <c r="H4" s="208"/>
@@ -37264,10 +37305,10 @@
       <c r="C5" s="208"/>
       <c r="D5" s="208"/>
       <c r="E5" s="209" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="F5" s="214" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="H5" s="208"/>
       <c r="I5" s="208"/>
@@ -37295,10 +37336,10 @@
       <c r="C6" s="208"/>
       <c r="D6" s="208"/>
       <c r="E6" s="209" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="F6" s="214" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="G6" s="215"/>
       <c r="H6" s="208"/>
@@ -37327,10 +37368,10 @@
       <c r="C7" s="208"/>
       <c r="D7" s="208"/>
       <c r="E7" s="216" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="F7" s="217" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="G7" s="215"/>
       <c r="H7" s="208"/>
@@ -37359,10 +37400,10 @@
       <c r="C8" s="208"/>
       <c r="D8" s="208"/>
       <c r="E8" s="218" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="F8" s="218" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="146"/>
       <c r="H8" s="208"/>
@@ -37391,10 +37432,10 @@
       <c r="C9" s="208"/>
       <c r="D9" s="208"/>
       <c r="E9" s="218" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="F9" s="218" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="G9" s="219"/>
       <c r="H9" s="208"/>
@@ -37426,7 +37467,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="221" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="G10" s="219"/>
       <c r="H10" s="208"/>
@@ -37458,7 +37499,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="218" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="G11" s="146"/>
       <c r="H11" s="208"/>
@@ -37490,7 +37531,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="222" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="G12" s="219"/>
       <c r="H12" s="208"/>
@@ -37519,10 +37560,10 @@
       <c r="C13" s="208"/>
       <c r="D13" s="208"/>
       <c r="E13" s="218" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="F13" s="218" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="G13" s="146"/>
       <c r="H13" s="208"/>
@@ -37551,10 +37592,10 @@
       <c r="C14" s="208"/>
       <c r="D14" s="208"/>
       <c r="E14" s="218" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="F14" s="218" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="G14" s="146"/>
       <c r="H14" s="208"/>
@@ -37586,7 +37627,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="218" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="G15" s="146"/>
       <c r="H15" s="208"/>
@@ -37618,7 +37659,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="218" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="G16" s="146"/>
       <c r="H16" s="208"/>
@@ -37650,7 +37691,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="218" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="G17" s="146"/>
       <c r="H17" s="208"/>
@@ -37679,10 +37720,10 @@
       <c r="C18" s="208"/>
       <c r="D18" s="208"/>
       <c r="E18" s="223" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="F18" s="218" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="G18" s="146"/>
       <c r="H18" s="208"/>
@@ -37735,18 +37776,18 @@
     </row>
     <row r="20">
       <c r="A20" s="211" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="B20" s="208"/>
       <c r="C20" s="208"/>
       <c r="D20" s="211" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="E20" s="211" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="F20" s="219" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="G20" s="146"/>
       <c r="H20" s="208"/>
@@ -37775,10 +37816,10 @@
       <c r="C21" s="208"/>
       <c r="D21" s="208"/>
       <c r="E21" s="211" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="F21" s="219" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="G21" s="219"/>
       <c r="H21" s="208"/>
@@ -37807,10 +37848,10 @@
       <c r="C22" s="208"/>
       <c r="D22" s="208"/>
       <c r="E22" s="211" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="F22" s="226" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="G22" s="219"/>
       <c r="H22" s="208"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -3387,7 +3387,7 @@
     <t>전체 필기 지우기</t>
   </si>
   <si>
-    <t>플레이트에 펜으로 큰 ‘X’를 그리면\n작성하신 필기가 모두 지워집니다.</t>
+    <t>플레이트에 펜으로 큰 ‘X’를 그리면\n작성하신 필기가 모두 지워집니다.\n\n* 지워진 필기 복구 불가</t>
   </si>
 </sst>
 </file>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1120">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3223,6 +3223,12 @@
   </si>
   <si>
     <t>더 알아보기</t>
+  </si>
+  <si>
+    <t>alert_wrongFileName</t>
+  </si>
+  <si>
+    <t>읽을 수 없는 파일입니다. 파일명을 확인해주세요.</t>
   </si>
   <si>
     <t>title</t>
@@ -14293,10 +14299,14 @@
     <row r="241">
       <c r="A241" s="43"/>
       <c r="B241" s="116"/>
-      <c r="C241" s="114"/>
+      <c r="C241" s="112" t="s">
+        <v>1063</v>
+      </c>
       <c r="D241" s="113"/>
       <c r="E241" s="114"/>
-      <c r="F241" s="201"/>
+      <c r="F241" s="170" t="s">
+        <v>1064</v>
+      </c>
       <c r="G241" s="197"/>
       <c r="H241" s="197"/>
       <c r="I241" s="197"/>
@@ -37195,22 +37205,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="203" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C1" s="203" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D1" s="203" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E1" s="203" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="F1" s="203" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G1" s="204" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H1" s="205"/>
       <c r="I1" s="205"/>
@@ -37234,21 +37244,21 @@
     </row>
     <row r="2">
       <c r="A2" s="205" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B2" s="205"/>
       <c r="C2" s="205"/>
       <c r="D2" s="175" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E2" s="206" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F2" s="207" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G2" s="208" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H2" s="205"/>
       <c r="I2" s="205"/>
@@ -37276,10 +37286,10 @@
       <c r="C3" s="205"/>
       <c r="D3" s="205"/>
       <c r="E3" s="206" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F3" s="209" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G3" s="210"/>
       <c r="H3" s="205"/>
@@ -37308,10 +37318,10 @@
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
       <c r="E4" s="206" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="209" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G4" s="210"/>
       <c r="H4" s="205"/>
@@ -37340,10 +37350,10 @@
       <c r="C5" s="205"/>
       <c r="D5" s="205"/>
       <c r="E5" s="206" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F5" s="211" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
@@ -37371,10 +37381,10 @@
       <c r="C6" s="205"/>
       <c r="D6" s="205"/>
       <c r="E6" s="206" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F6" s="211" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G6" s="212"/>
       <c r="H6" s="205"/>
@@ -37403,10 +37413,10 @@
       <c r="C7" s="205"/>
       <c r="D7" s="205"/>
       <c r="E7" s="213" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F7" s="214" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G7" s="212"/>
       <c r="H7" s="205"/>
@@ -37435,10 +37445,10 @@
       <c r="C8" s="205"/>
       <c r="D8" s="205"/>
       <c r="E8" s="215" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F8" s="215" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G8" s="146"/>
       <c r="H8" s="205"/>
@@ -37467,10 +37477,10 @@
       <c r="C9" s="205"/>
       <c r="D9" s="205"/>
       <c r="E9" s="215" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F9" s="215" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G9" s="216"/>
       <c r="H9" s="205"/>
@@ -37502,7 +37512,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="218" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="G10" s="216"/>
       <c r="H10" s="205"/>
@@ -37534,7 +37544,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="215" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G11" s="146"/>
       <c r="H11" s="205"/>
@@ -37566,7 +37576,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="219" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G12" s="216"/>
       <c r="H12" s="205"/>
@@ -37595,10 +37605,10 @@
       <c r="C13" s="205"/>
       <c r="D13" s="205"/>
       <c r="E13" s="215" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F13" s="215" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G13" s="146"/>
       <c r="H13" s="205"/>
@@ -37627,10 +37637,10 @@
       <c r="C14" s="205"/>
       <c r="D14" s="205"/>
       <c r="E14" s="215" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F14" s="215" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G14" s="146"/>
       <c r="H14" s="205"/>
@@ -37662,7 +37672,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="215" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="G15" s="146"/>
       <c r="H15" s="205"/>
@@ -37694,7 +37704,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="215" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G16" s="146"/>
       <c r="H16" s="205"/>
@@ -37726,7 +37736,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="215" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="G17" s="146"/>
       <c r="H17" s="205"/>
@@ -37755,10 +37765,10 @@
       <c r="C18" s="205"/>
       <c r="D18" s="205"/>
       <c r="E18" s="220" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F18" s="215" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G18" s="146"/>
       <c r="H18" s="205"/>
@@ -37811,18 +37821,18 @@
     </row>
     <row r="20">
       <c r="A20" s="208" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B20" s="205"/>
       <c r="C20" s="205"/>
       <c r="D20" s="208" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E20" s="208" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F20" s="216" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="146"/>
       <c r="H20" s="205"/>
@@ -37851,10 +37861,10 @@
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="208" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F21" s="216" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G21" s="216"/>
       <c r="H21" s="205"/>
@@ -37883,10 +37893,10 @@
       <c r="C22" s="205"/>
       <c r="D22" s="205"/>
       <c r="E22" s="208" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F22" s="223" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G22" s="216"/>
       <c r="H22" s="205"/>
@@ -37939,18 +37949,18 @@
     </row>
     <row r="24">
       <c r="A24" s="224" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B24" s="205"/>
       <c r="C24" s="205"/>
       <c r="D24" s="224" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E24" s="175" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F24" s="175" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="G24" s="225"/>
       <c r="H24" s="205"/>
@@ -37979,10 +37989,10 @@
       <c r="C25" s="205"/>
       <c r="D25" s="205"/>
       <c r="E25" s="175" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F25" s="175" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="G25" s="146"/>
       <c r="H25" s="205"/>
@@ -38011,10 +38021,10 @@
       <c r="C26" s="205"/>
       <c r="D26" s="205"/>
       <c r="E26" s="175" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F26" s="175" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G26" s="146"/>
       <c r="H26" s="205"/>
@@ -38043,10 +38053,10 @@
       <c r="C27" s="205"/>
       <c r="D27" s="205"/>
       <c r="E27" s="175" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F27" s="175" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="G27" s="146"/>
       <c r="H27" s="205"/>
@@ -38075,10 +38085,10 @@
       <c r="C28" s="205"/>
       <c r="D28" s="205"/>
       <c r="E28" s="175" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F28" s="175" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G28" s="146"/>
       <c r="H28" s="205"/>
@@ -38107,10 +38117,10 @@
       <c r="C29" s="205"/>
       <c r="D29" s="205"/>
       <c r="E29" s="175" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F29" s="175" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G29" s="146"/>
       <c r="H29" s="205"/>
@@ -38139,10 +38149,10 @@
       <c r="C30" s="205"/>
       <c r="D30" s="205"/>
       <c r="E30" s="224" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="F30" s="226" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G30" s="146"/>
       <c r="H30" s="205"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1118">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3358,12 +3358,6 @@
   </si>
   <si>
     <t>플레이트에 새롭게 도입된 펜 제스처와 함께\n필기/손글씨로 스마트하게 소통해 보세요!</t>
-  </si>
-  <si>
-    <t>새 페이지 생성하기</t>
-  </si>
-  <si>
-    <t>플레이트의 ‘+’나 해당 영역을 펜으로 더블 탭 하면\n새 페이지가 생성 됩니다.</t>
   </si>
   <si>
     <t>이전 페이지로 이동</t>
@@ -38116,10 +38110,10 @@
       <c r="B29" s="205"/>
       <c r="C29" s="205"/>
       <c r="D29" s="205"/>
-      <c r="E29" s="175" t="s">
+      <c r="E29" s="224" t="s">
         <v>1116</v>
       </c>
-      <c r="F29" s="175" t="s">
+      <c r="F29" s="226" t="s">
         <v>1117</v>
       </c>
       <c r="G29" s="146"/>
@@ -38148,12 +38142,8 @@
       <c r="B30" s="205"/>
       <c r="C30" s="205"/>
       <c r="D30" s="205"/>
-      <c r="E30" s="224" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F30" s="226" t="s">
-        <v>1119</v>
-      </c>
+      <c r="E30" s="224"/>
+      <c r="F30" s="226"/>
       <c r="G30" s="146"/>
       <c r="H30" s="205"/>
       <c r="I30" s="205"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1122">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3229,6 +3229,18 @@
   </si>
   <si>
     <t>읽을 수 없는 파일입니다. 파일명을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>nav_plate_mode</t>
+  </si>
+  <si>
+    <t>PLATE MODE</t>
+  </si>
+  <si>
+    <t>nav_page_mode</t>
+  </si>
+  <si>
+    <t>PAGE MODE</t>
   </si>
   <si>
     <t>title</t>
@@ -14325,11 +14337,17 @@
     <row r="242">
       <c r="A242" s="43"/>
       <c r="B242" s="116"/>
-      <c r="C242" s="114"/>
+      <c r="C242" s="112" t="s">
+        <v>1065</v>
+      </c>
       <c r="D242" s="113"/>
       <c r="E242" s="114"/>
-      <c r="F242" s="201"/>
-      <c r="G242" s="197"/>
+      <c r="F242" s="170" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G242" s="170" t="s">
+        <v>1066</v>
+      </c>
       <c r="H242" s="197"/>
       <c r="I242" s="197"/>
       <c r="J242" s="53"/>
@@ -14353,11 +14371,17 @@
     <row r="243">
       <c r="A243" s="43"/>
       <c r="B243" s="116"/>
-      <c r="C243" s="114"/>
+      <c r="C243" s="112" t="s">
+        <v>1067</v>
+      </c>
       <c r="D243" s="113"/>
       <c r="E243" s="114"/>
-      <c r="F243" s="201"/>
-      <c r="G243" s="197"/>
+      <c r="F243" s="170" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G243" s="170" t="s">
+        <v>1068</v>
+      </c>
       <c r="H243" s="197"/>
       <c r="I243" s="197"/>
       <c r="J243" s="53"/>
@@ -37199,22 +37223,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="203" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="C1" s="203" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="D1" s="203" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E1" s="203" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="F1" s="203" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="G1" s="204" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="H1" s="205"/>
       <c r="I1" s="205"/>
@@ -37238,21 +37262,21 @@
     </row>
     <row r="2">
       <c r="A2" s="205" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B2" s="205"/>
       <c r="C2" s="205"/>
       <c r="D2" s="175" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E2" s="206" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="207" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="208" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="H2" s="205"/>
       <c r="I2" s="205"/>
@@ -37280,10 +37304,10 @@
       <c r="C3" s="205"/>
       <c r="D3" s="205"/>
       <c r="E3" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F3" s="209" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="G3" s="210"/>
       <c r="H3" s="205"/>
@@ -37312,10 +37336,10 @@
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
       <c r="E4" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F4" s="209" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="G4" s="210"/>
       <c r="H4" s="205"/>
@@ -37344,10 +37368,10 @@
       <c r="C5" s="205"/>
       <c r="D5" s="205"/>
       <c r="E5" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="211" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
@@ -37375,10 +37399,10 @@
       <c r="C6" s="205"/>
       <c r="D6" s="205"/>
       <c r="E6" s="206" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="211" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="G6" s="212"/>
       <c r="H6" s="205"/>
@@ -37407,10 +37431,10 @@
       <c r="C7" s="205"/>
       <c r="D7" s="205"/>
       <c r="E7" s="213" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="F7" s="214" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="G7" s="212"/>
       <c r="H7" s="205"/>
@@ -37439,10 +37463,10 @@
       <c r="C8" s="205"/>
       <c r="D8" s="205"/>
       <c r="E8" s="215" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="F8" s="215" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="G8" s="146"/>
       <c r="H8" s="205"/>
@@ -37471,10 +37495,10 @@
       <c r="C9" s="205"/>
       <c r="D9" s="205"/>
       <c r="E9" s="215" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="F9" s="215" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="G9" s="216"/>
       <c r="H9" s="205"/>
@@ -37506,7 +37530,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="218" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="G10" s="216"/>
       <c r="H10" s="205"/>
@@ -37538,7 +37562,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="215" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="G11" s="146"/>
       <c r="H11" s="205"/>
@@ -37570,7 +37594,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="219" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="G12" s="216"/>
       <c r="H12" s="205"/>
@@ -37599,10 +37623,10 @@
       <c r="C13" s="205"/>
       <c r="D13" s="205"/>
       <c r="E13" s="215" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F13" s="215" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="G13" s="146"/>
       <c r="H13" s="205"/>
@@ -37631,10 +37655,10 @@
       <c r="C14" s="205"/>
       <c r="D14" s="205"/>
       <c r="E14" s="215" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F14" s="215" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="G14" s="146"/>
       <c r="H14" s="205"/>
@@ -37666,7 +37690,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="215" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="G15" s="146"/>
       <c r="H15" s="205"/>
@@ -37698,7 +37722,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="215" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="G16" s="146"/>
       <c r="H16" s="205"/>
@@ -37730,7 +37754,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="215" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="G17" s="146"/>
       <c r="H17" s="205"/>
@@ -37759,10 +37783,10 @@
       <c r="C18" s="205"/>
       <c r="D18" s="205"/>
       <c r="E18" s="220" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="215" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="G18" s="146"/>
       <c r="H18" s="205"/>
@@ -37815,18 +37839,18 @@
     </row>
     <row r="20">
       <c r="A20" s="208" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B20" s="205"/>
       <c r="C20" s="205"/>
       <c r="D20" s="208" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E20" s="208" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F20" s="216" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G20" s="146"/>
       <c r="H20" s="205"/>
@@ -37855,10 +37879,10 @@
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="208" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F21" s="216" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="G21" s="216"/>
       <c r="H21" s="205"/>
@@ -37887,10 +37911,10 @@
       <c r="C22" s="205"/>
       <c r="D22" s="205"/>
       <c r="E22" s="208" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F22" s="223" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="G22" s="216"/>
       <c r="H22" s="205"/>
@@ -37943,18 +37967,18 @@
     </row>
     <row r="24">
       <c r="A24" s="224" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B24" s="205"/>
       <c r="C24" s="205"/>
       <c r="D24" s="224" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="E24" s="175" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F24" s="175" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="G24" s="225"/>
       <c r="H24" s="205"/>
@@ -37983,10 +38007,10 @@
       <c r="C25" s="205"/>
       <c r="D25" s="205"/>
       <c r="E25" s="175" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F25" s="175" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="G25" s="146"/>
       <c r="H25" s="205"/>
@@ -38015,10 +38039,10 @@
       <c r="C26" s="205"/>
       <c r="D26" s="205"/>
       <c r="E26" s="175" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F26" s="175" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G26" s="146"/>
       <c r="H26" s="205"/>
@@ -38047,10 +38071,10 @@
       <c r="C27" s="205"/>
       <c r="D27" s="205"/>
       <c r="E27" s="175" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="F27" s="175" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="G27" s="146"/>
       <c r="H27" s="205"/>
@@ -38079,10 +38103,10 @@
       <c r="C28" s="205"/>
       <c r="D28" s="205"/>
       <c r="E28" s="175" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F28" s="175" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G28" s="146"/>
       <c r="H28" s="205"/>
@@ -38111,10 +38135,10 @@
       <c r="C29" s="205"/>
       <c r="D29" s="205"/>
       <c r="E29" s="224" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="F29" s="226" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="G29" s="146"/>
       <c r="H29" s="205"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1122">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3231,6 +3231,18 @@
     <t>읽을 수 없는 파일입니다. 파일명을 확인해주세요.</t>
   </si>
   <si>
+    <t>nav_plate_mode</t>
+  </si>
+  <si>
+    <t>PLATE MODE</t>
+  </si>
+  <si>
+    <t>nav_page_mode</t>
+  </si>
+  <si>
+    <t>PAGE MODE</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -3358,12 +3370,6 @@
   </si>
   <si>
     <t>플레이트에 새롭게 도입된 펜 제스처와 함께\n필기/손글씨로 스마트하게 소통해 보세요!</t>
-  </si>
-  <si>
-    <t>새 페이지 생성하기</t>
-  </si>
-  <si>
-    <t>플레이트의 ‘+’나 해당 영역을 펜으로 더블 탭 하면\n새 페이지가 생성 됩니다.</t>
   </si>
   <si>
     <t>이전 페이지로 이동</t>
@@ -14331,11 +14337,17 @@
     <row r="242">
       <c r="A242" s="43"/>
       <c r="B242" s="116"/>
-      <c r="C242" s="114"/>
+      <c r="C242" s="112" t="s">
+        <v>1065</v>
+      </c>
       <c r="D242" s="113"/>
       <c r="E242" s="114"/>
-      <c r="F242" s="201"/>
-      <c r="G242" s="197"/>
+      <c r="F242" s="170" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G242" s="170" t="s">
+        <v>1066</v>
+      </c>
       <c r="H242" s="197"/>
       <c r="I242" s="197"/>
       <c r="J242" s="53"/>
@@ -14359,11 +14371,17 @@
     <row r="243">
       <c r="A243" s="43"/>
       <c r="B243" s="116"/>
-      <c r="C243" s="114"/>
+      <c r="C243" s="112" t="s">
+        <v>1067</v>
+      </c>
       <c r="D243" s="113"/>
       <c r="E243" s="114"/>
-      <c r="F243" s="201"/>
-      <c r="G243" s="197"/>
+      <c r="F243" s="170" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G243" s="170" t="s">
+        <v>1068</v>
+      </c>
       <c r="H243" s="197"/>
       <c r="I243" s="197"/>
       <c r="J243" s="53"/>
@@ -37205,22 +37223,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="203" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="C1" s="203" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="D1" s="203" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E1" s="203" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="F1" s="203" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="G1" s="204" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="H1" s="205"/>
       <c r="I1" s="205"/>
@@ -37244,21 +37262,21 @@
     </row>
     <row r="2">
       <c r="A2" s="205" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B2" s="205"/>
       <c r="C2" s="205"/>
       <c r="D2" s="175" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E2" s="206" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="207" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="208" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="H2" s="205"/>
       <c r="I2" s="205"/>
@@ -37286,10 +37304,10 @@
       <c r="C3" s="205"/>
       <c r="D3" s="205"/>
       <c r="E3" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F3" s="209" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="G3" s="210"/>
       <c r="H3" s="205"/>
@@ -37318,10 +37336,10 @@
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
       <c r="E4" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F4" s="209" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="G4" s="210"/>
       <c r="H4" s="205"/>
@@ -37350,10 +37368,10 @@
       <c r="C5" s="205"/>
       <c r="D5" s="205"/>
       <c r="E5" s="206" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="211" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
@@ -37381,10 +37399,10 @@
       <c r="C6" s="205"/>
       <c r="D6" s="205"/>
       <c r="E6" s="206" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="211" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="G6" s="212"/>
       <c r="H6" s="205"/>
@@ -37413,10 +37431,10 @@
       <c r="C7" s="205"/>
       <c r="D7" s="205"/>
       <c r="E7" s="213" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="F7" s="214" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="G7" s="212"/>
       <c r="H7" s="205"/>
@@ -37445,10 +37463,10 @@
       <c r="C8" s="205"/>
       <c r="D8" s="205"/>
       <c r="E8" s="215" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="F8" s="215" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="G8" s="146"/>
       <c r="H8" s="205"/>
@@ -37477,10 +37495,10 @@
       <c r="C9" s="205"/>
       <c r="D9" s="205"/>
       <c r="E9" s="215" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="F9" s="215" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="G9" s="216"/>
       <c r="H9" s="205"/>
@@ -37512,7 +37530,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="218" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="G10" s="216"/>
       <c r="H10" s="205"/>
@@ -37544,7 +37562,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="215" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="G11" s="146"/>
       <c r="H11" s="205"/>
@@ -37576,7 +37594,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="219" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="G12" s="216"/>
       <c r="H12" s="205"/>
@@ -37605,10 +37623,10 @@
       <c r="C13" s="205"/>
       <c r="D13" s="205"/>
       <c r="E13" s="215" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F13" s="215" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="G13" s="146"/>
       <c r="H13" s="205"/>
@@ -37637,10 +37655,10 @@
       <c r="C14" s="205"/>
       <c r="D14" s="205"/>
       <c r="E14" s="215" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F14" s="215" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="G14" s="146"/>
       <c r="H14" s="205"/>
@@ -37672,7 +37690,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="215" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="G15" s="146"/>
       <c r="H15" s="205"/>
@@ -37704,7 +37722,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="215" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="G16" s="146"/>
       <c r="H16" s="205"/>
@@ -37736,7 +37754,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="215" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="G17" s="146"/>
       <c r="H17" s="205"/>
@@ -37765,10 +37783,10 @@
       <c r="C18" s="205"/>
       <c r="D18" s="205"/>
       <c r="E18" s="220" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="215" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="G18" s="146"/>
       <c r="H18" s="205"/>
@@ -37821,18 +37839,18 @@
     </row>
     <row r="20">
       <c r="A20" s="208" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B20" s="205"/>
       <c r="C20" s="205"/>
       <c r="D20" s="208" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E20" s="208" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F20" s="216" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G20" s="146"/>
       <c r="H20" s="205"/>
@@ -37861,10 +37879,10 @@
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="208" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F21" s="216" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="G21" s="216"/>
       <c r="H21" s="205"/>
@@ -37893,10 +37911,10 @@
       <c r="C22" s="205"/>
       <c r="D22" s="205"/>
       <c r="E22" s="208" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F22" s="223" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="G22" s="216"/>
       <c r="H22" s="205"/>
@@ -37949,18 +37967,18 @@
     </row>
     <row r="24">
       <c r="A24" s="224" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B24" s="205"/>
       <c r="C24" s="205"/>
       <c r="D24" s="224" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="E24" s="175" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F24" s="175" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="G24" s="225"/>
       <c r="H24" s="205"/>
@@ -37989,10 +38007,10 @@
       <c r="C25" s="205"/>
       <c r="D25" s="205"/>
       <c r="E25" s="175" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F25" s="175" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="G25" s="146"/>
       <c r="H25" s="205"/>
@@ -38021,10 +38039,10 @@
       <c r="C26" s="205"/>
       <c r="D26" s="205"/>
       <c r="E26" s="175" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F26" s="175" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G26" s="146"/>
       <c r="H26" s="205"/>
@@ -38053,10 +38071,10 @@
       <c r="C27" s="205"/>
       <c r="D27" s="205"/>
       <c r="E27" s="175" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="F27" s="175" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="G27" s="146"/>
       <c r="H27" s="205"/>
@@ -38085,10 +38103,10 @@
       <c r="C28" s="205"/>
       <c r="D28" s="205"/>
       <c r="E28" s="175" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F28" s="175" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G28" s="146"/>
       <c r="H28" s="205"/>
@@ -38116,11 +38134,11 @@
       <c r="B29" s="205"/>
       <c r="C29" s="205"/>
       <c r="D29" s="205"/>
-      <c r="E29" s="175" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F29" s="175" t="s">
-        <v>1117</v>
+      <c r="E29" s="224" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F29" s="226" t="s">
+        <v>1121</v>
       </c>
       <c r="G29" s="146"/>
       <c r="H29" s="205"/>
@@ -38148,12 +38166,8 @@
       <c r="B30" s="205"/>
       <c r="C30" s="205"/>
       <c r="D30" s="205"/>
-      <c r="E30" s="224" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F30" s="226" t="s">
-        <v>1119</v>
-      </c>
+      <c r="E30" s="224"/>
+      <c r="F30" s="226"/>
       <c r="G30" s="146"/>
       <c r="H30" s="205"/>
       <c r="I30" s="205"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1189">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3431,7 +3431,16 @@
     <t>‘[%NAME]’에서\n디바이스 권한을 이동하시겠습니까?</t>
   </si>
   <si>
+    <t>NEOSTUDIO_WEB</t>
+  </si>
+  <si>
     <t>네오스튜디오(WEB)</t>
+  </si>
+  <si>
+    <t>bluetooth_chargeBattery</t>
+  </si>
+  <si>
+    <t>충전중</t>
   </si>
   <si>
     <t>title</t>
@@ -15089,11 +15098,13 @@
     <row r="255">
       <c r="A255" s="43"/>
       <c r="B255" s="116"/>
-      <c r="C255" s="114"/>
+      <c r="C255" s="112" t="s">
+        <v>1132</v>
+      </c>
       <c r="D255" s="113"/>
       <c r="E255" s="114"/>
       <c r="F255" s="176" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G255" s="208"/>
       <c r="H255" s="208"/>
@@ -15119,10 +15130,14 @@
     <row r="256">
       <c r="A256" s="43"/>
       <c r="B256" s="116"/>
-      <c r="C256" s="114"/>
+      <c r="C256" s="112" t="s">
+        <v>1134</v>
+      </c>
       <c r="D256" s="113"/>
       <c r="E256" s="114"/>
-      <c r="F256" s="209"/>
+      <c r="F256" s="171" t="s">
+        <v>1135</v>
+      </c>
       <c r="G256" s="208"/>
       <c r="H256" s="208"/>
       <c r="I256" s="208"/>
@@ -37601,22 +37616,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="211" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C1" s="211" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D1" s="211" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="E1" s="211" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="F1" s="211" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="G1" s="212" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="H1" s="213"/>
       <c r="I1" s="213"/>
@@ -37640,21 +37655,21 @@
     </row>
     <row r="2">
       <c r="A2" s="213" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B2" s="213"/>
       <c r="C2" s="213"/>
       <c r="D2" s="176" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E2" s="214" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F2" s="215" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="G2" s="216" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="H2" s="213"/>
       <c r="I2" s="213"/>
@@ -37682,10 +37697,10 @@
       <c r="C3" s="213"/>
       <c r="D3" s="213"/>
       <c r="E3" s="214" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F3" s="217" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="G3" s="218"/>
       <c r="H3" s="213"/>
@@ -37714,10 +37729,10 @@
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
       <c r="E4" s="214" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="217" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="G4" s="218"/>
       <c r="H4" s="213"/>
@@ -37746,10 +37761,10 @@
       <c r="C5" s="213"/>
       <c r="D5" s="213"/>
       <c r="E5" s="214" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F5" s="219" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="H5" s="213"/>
       <c r="I5" s="213"/>
@@ -37777,10 +37792,10 @@
       <c r="C6" s="213"/>
       <c r="D6" s="213"/>
       <c r="E6" s="214" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="F6" s="219" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="G6" s="220"/>
       <c r="H6" s="213"/>
@@ -37809,10 +37824,10 @@
       <c r="C7" s="213"/>
       <c r="D7" s="213"/>
       <c r="E7" s="221" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="F7" s="222" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="G7" s="220"/>
       <c r="H7" s="213"/>
@@ -37841,10 +37856,10 @@
       <c r="C8" s="213"/>
       <c r="D8" s="213"/>
       <c r="E8" s="223" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="F8" s="223" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="213"/>
@@ -37873,10 +37888,10 @@
       <c r="C9" s="213"/>
       <c r="D9" s="213"/>
       <c r="E9" s="223" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="F9" s="223" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="G9" s="224"/>
       <c r="H9" s="213"/>
@@ -37908,7 +37923,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="226" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="G10" s="224"/>
       <c r="H10" s="213"/>
@@ -37940,7 +37955,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="223" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="213"/>
@@ -37972,7 +37987,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="227" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G12" s="224"/>
       <c r="H12" s="213"/>
@@ -38001,10 +38016,10 @@
       <c r="C13" s="213"/>
       <c r="D13" s="213"/>
       <c r="E13" s="223" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="F13" s="223" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="213"/>
@@ -38033,10 +38048,10 @@
       <c r="C14" s="213"/>
       <c r="D14" s="213"/>
       <c r="E14" s="223" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="F14" s="223" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="G14" s="147"/>
       <c r="H14" s="213"/>
@@ -38068,7 +38083,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="223" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="G15" s="147"/>
       <c r="H15" s="213"/>
@@ -38100,7 +38115,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="223" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="G16" s="147"/>
       <c r="H16" s="213"/>
@@ -38132,7 +38147,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="223" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="G17" s="147"/>
       <c r="H17" s="213"/>
@@ -38161,10 +38176,10 @@
       <c r="C18" s="213"/>
       <c r="D18" s="213"/>
       <c r="E18" s="228" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="F18" s="223" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="213"/>
@@ -38217,18 +38232,18 @@
     </row>
     <row r="20">
       <c r="A20" s="216" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B20" s="213"/>
       <c r="C20" s="213"/>
       <c r="D20" s="216" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E20" s="216" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="F20" s="224" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G20" s="147"/>
       <c r="H20" s="213"/>
@@ -38257,10 +38272,10 @@
       <c r="C21" s="213"/>
       <c r="D21" s="213"/>
       <c r="E21" s="216" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="F21" s="224" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="G21" s="224"/>
       <c r="H21" s="213"/>
@@ -38289,10 +38304,10 @@
       <c r="C22" s="213"/>
       <c r="D22" s="213"/>
       <c r="E22" s="216" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="F22" s="231" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="G22" s="224"/>
       <c r="H22" s="213"/>
@@ -38345,18 +38360,18 @@
     </row>
     <row r="24">
       <c r="A24" s="232" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B24" s="213"/>
       <c r="C24" s="213"/>
       <c r="D24" s="232" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E24" s="176" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F24" s="176" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G24" s="233"/>
       <c r="H24" s="213"/>
@@ -38385,10 +38400,10 @@
       <c r="C25" s="213"/>
       <c r="D25" s="213"/>
       <c r="E25" s="176" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="F25" s="176" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="G25" s="147"/>
       <c r="H25" s="213"/>
@@ -38417,10 +38432,10 @@
       <c r="C26" s="213"/>
       <c r="D26" s="213"/>
       <c r="E26" s="176" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="F26" s="176" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="213"/>
@@ -38449,10 +38464,10 @@
       <c r="C27" s="213"/>
       <c r="D27" s="213"/>
       <c r="E27" s="176" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="F27" s="176" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="213"/>
@@ -38481,10 +38496,10 @@
       <c r="C28" s="213"/>
       <c r="D28" s="213"/>
       <c r="E28" s="176" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="F28" s="176" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="213"/>
@@ -38513,10 +38528,10 @@
       <c r="C29" s="213"/>
       <c r="D29" s="213"/>
       <c r="E29" s="232" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="F29" s="234" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="G29" s="147"/>
       <c r="H29" s="213"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1202">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3464,13 +3464,22 @@
     <t>login_withNDP</t>
   </si>
   <si>
-    <t>NDP 로그인</t>
-  </si>
-  <si>
-    <t>Sign in with NDP</t>
-  </si>
-  <si>
-    <t>NDPでログイン</t>
+    <t>NeoLAB Cloud 로그인</t>
+  </si>
+  <si>
+    <t>Sign in with NeoLAB Cloud</t>
+  </si>
+  <si>
+    <t>NeoLAB Cloudでログイン</t>
+  </si>
+  <si>
+    <t>使用 NeoLAB Cloud 帳號登入</t>
+  </si>
+  <si>
+    <t>no_NDP</t>
+  </si>
+  <si>
+    <t>Neolab Cloud가 없다면?</t>
   </si>
   <si>
     <t>title</t>
@@ -15309,7 +15318,7 @@
         <v>1145</v>
       </c>
       <c r="I260" s="210" t="s">
-        <v>843</v>
+        <v>1146</v>
       </c>
       <c r="L260" s="53"/>
       <c r="M260" s="53"/>
@@ -15330,10 +15339,14 @@
     <row r="261">
       <c r="A261" s="43"/>
       <c r="B261" s="116"/>
-      <c r="C261" s="114"/>
+      <c r="C261" s="112" t="s">
+        <v>1147</v>
+      </c>
       <c r="D261" s="113"/>
       <c r="E261" s="114"/>
-      <c r="F261" s="211"/>
+      <c r="F261" s="171" t="s">
+        <v>1148</v>
+      </c>
       <c r="G261" s="208"/>
       <c r="H261" s="208"/>
       <c r="I261" s="208"/>
@@ -37672,22 +37685,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="213" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C1" s="213" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D1" s="213" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="E1" s="213" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="F1" s="213" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="G1" s="214" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="H1" s="215"/>
       <c r="I1" s="215"/>
@@ -37711,21 +37724,21 @@
     </row>
     <row r="2">
       <c r="A2" s="215" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B2" s="215"/>
       <c r="C2" s="215"/>
       <c r="D2" s="176" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="E2" s="216" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F2" s="217" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="G2" s="218" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="H2" s="215"/>
       <c r="I2" s="215"/>
@@ -37753,10 +37766,10 @@
       <c r="C3" s="215"/>
       <c r="D3" s="215"/>
       <c r="E3" s="216" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="219" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G3" s="220"/>
       <c r="H3" s="215"/>
@@ -37785,10 +37798,10 @@
       <c r="C4" s="215"/>
       <c r="D4" s="215"/>
       <c r="E4" s="216" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F4" s="219" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="G4" s="220"/>
       <c r="H4" s="215"/>
@@ -37817,10 +37830,10 @@
       <c r="C5" s="215"/>
       <c r="D5" s="215"/>
       <c r="E5" s="216" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F5" s="221" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="H5" s="215"/>
       <c r="I5" s="215"/>
@@ -37848,10 +37861,10 @@
       <c r="C6" s="215"/>
       <c r="D6" s="215"/>
       <c r="E6" s="216" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="F6" s="221" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="G6" s="222"/>
       <c r="H6" s="215"/>
@@ -37880,10 +37893,10 @@
       <c r="C7" s="215"/>
       <c r="D7" s="215"/>
       <c r="E7" s="223" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="F7" s="224" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="G7" s="222"/>
       <c r="H7" s="215"/>
@@ -37912,10 +37925,10 @@
       <c r="C8" s="215"/>
       <c r="D8" s="215"/>
       <c r="E8" s="225" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="225" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="215"/>
@@ -37944,10 +37957,10 @@
       <c r="C9" s="215"/>
       <c r="D9" s="215"/>
       <c r="E9" s="225" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="F9" s="225" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="G9" s="226"/>
       <c r="H9" s="215"/>
@@ -37979,7 +37992,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="228" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G10" s="226"/>
       <c r="H10" s="215"/>
@@ -38011,7 +38024,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="225" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="215"/>
@@ -38043,7 +38056,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="229" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="G12" s="226"/>
       <c r="H12" s="215"/>
@@ -38072,10 +38085,10 @@
       <c r="C13" s="215"/>
       <c r="D13" s="215"/>
       <c r="E13" s="225" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="F13" s="225" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="215"/>
@@ -38104,10 +38117,10 @@
       <c r="C14" s="215"/>
       <c r="D14" s="215"/>
       <c r="E14" s="225" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="F14" s="225" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="G14" s="147"/>
       <c r="H14" s="215"/>
@@ -38139,7 +38152,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="225" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="G15" s="147"/>
       <c r="H15" s="215"/>
@@ -38171,7 +38184,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="225" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G16" s="147"/>
       <c r="H16" s="215"/>
@@ -38203,7 +38216,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="225" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="G17" s="147"/>
       <c r="H17" s="215"/>
@@ -38232,10 +38245,10 @@
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
       <c r="E18" s="230" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="F18" s="225" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="215"/>
@@ -38288,18 +38301,18 @@
     </row>
     <row r="20">
       <c r="A20" s="218" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B20" s="215"/>
       <c r="C20" s="215"/>
       <c r="D20" s="218" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="E20" s="218" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="F20" s="226" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="G20" s="147"/>
       <c r="H20" s="215"/>
@@ -38328,10 +38341,10 @@
       <c r="C21" s="215"/>
       <c r="D21" s="215"/>
       <c r="E21" s="218" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="226" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G21" s="226"/>
       <c r="H21" s="215"/>
@@ -38360,10 +38373,10 @@
       <c r="C22" s="215"/>
       <c r="D22" s="215"/>
       <c r="E22" s="218" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="F22" s="233" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="G22" s="226"/>
       <c r="H22" s="215"/>
@@ -38416,18 +38429,18 @@
     </row>
     <row r="24">
       <c r="A24" s="234" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B24" s="215"/>
       <c r="C24" s="215"/>
       <c r="D24" s="234" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="E24" s="176" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="F24" s="176" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="G24" s="235"/>
       <c r="H24" s="215"/>
@@ -38456,10 +38469,10 @@
       <c r="C25" s="215"/>
       <c r="D25" s="215"/>
       <c r="E25" s="176" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F25" s="176" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="G25" s="147"/>
       <c r="H25" s="215"/>
@@ -38488,10 +38501,10 @@
       <c r="C26" s="215"/>
       <c r="D26" s="215"/>
       <c r="E26" s="176" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="F26" s="176" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="215"/>
@@ -38520,10 +38533,10 @@
       <c r="C27" s="215"/>
       <c r="D27" s="215"/>
       <c r="E27" s="176" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="F27" s="176" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="215"/>
@@ -38552,10 +38565,10 @@
       <c r="C28" s="215"/>
       <c r="D28" s="215"/>
       <c r="E28" s="176" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="F28" s="176" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="215"/>
@@ -38584,10 +38597,10 @@
       <c r="C29" s="215"/>
       <c r="D29" s="215"/>
       <c r="E29" s="234" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="236" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="G29" s="147"/>
       <c r="H29" s="215"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -7,12 +7,12 @@
     <sheet state="visible" name="help_ko" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">string!$B$4:$K$264</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF48EAA2_6E95_4895_9117_13F3B57B36BF_.wvu.FilterData">string!$B$4:$K$264</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">string!$B$4:$K$265</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_09B11071_B402_46A9_9F7C_014B2FBC51F2_.wvu.FilterData">string!$B$4:$K$265</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF48EAA2-6E95-4895-9117-13F3B57B36BF}" name="필터 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{09B11071-B402-46A9-9F7C-014B2FBC51F2}" name="필터 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1265">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2991,33 +2991,31 @@
     <t>openNotice_title</t>
   </si>
   <si>
-    <t>그리다보드 클라우드\n서비스 오픈!</t>
-  </si>
-  <si>
-    <t>Gridaboard\nCloud Service Open!</t>
-  </si>
-  <si>
-    <t>Grida Board\nクラウドサービスオープン！</t>
-  </si>
-  <si>
-    <t>Grida Board\n雲平台服務正式開通</t>
+    <t>NeoLAB Cloud 오픈!</t>
+  </si>
+  <si>
+    <t>NeoLAB Cloud is now open!</t>
+  </si>
+  <si>
+    <t>NeoLAB Cloudがオープンしまし\nた！</t>
+  </si>
+  <si>
+    <t>NeoLAB Cloud開業了！</t>
   </si>
   <si>
     <t>openNotice_subTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">이제 더이상 작업중인 파일을 내PC에 다운로드할 필요가 없습니다. 로그인만 \n하시면 작업중인 파일을 언제 어디서라도 손쉽게 불러올 수 있습니다. </t>
-  </si>
-  <si>
-    <t>You no longer need to download the file you are working on to your PC. \n By logging in, you can easily access the file you are working on anytime, anywhere.</t>
-  </si>
-  <si>
-    <t>作成したファイルをPCにダウンロード保存しなくてもOK！\n
-ログインすればいつでもどこでも簡単にファイルを呼び出すことができます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您不再需要將您正在處理的文件下載到您的 PC 上。\n
-只需登錄，您就可以隨時隨地輕鬆加載您正在處理的文件。 </t>
+    <t>Pen manager가 NeoLAB Cloud로 리뉴얼 되었습니다!\n네오랩 클라우드로 업데이트함에 따라\n네오스튜디오 웹 및 그리다보드를 더욱 편리하게 사용하실 수 있습니다.\n네오랩 클라우드의 새로운 기능은 아래 링크에서 확인해주세요!</t>
+  </si>
+  <si>
+    <t>The Pen Manager has been renewed to NeoLAB Cloud!\nWith the update to NeoLAB Cloud,\nYou can use Neo Studio Web and Grida Board even more conveniently.\nPlease check out the new features of NeoLAB Cloud at the link below!</t>
+  </si>
+  <si>
+    <t>ペンマネージャーがNeoLAB Cloudにリニューアルされました！\nNeoLAB Cloudへのアップデートにより\nNeo Studio WebやGrib Boardをさらに便利にご利用いただけます。\nNeoLAB Cloudの新しい機能は、以下のリンクからご確認ください！</t>
+  </si>
+  <si>
+    <t>筆經理升級爲NeoLAB Cloud！\n更新到NeoLAB Cloud,\n可更加方便地使用 Neo Studio Web和 Grib Board。\n請在下面的鏈接中查看NeoLAB Cloud的新功能！</t>
   </si>
   <si>
     <t>openNotice_end</t>
@@ -3033,6 +3031,21 @@
   </si>
   <si>
     <t>不再顯示</t>
+  </si>
+  <si>
+    <t>openNotice_button</t>
+  </si>
+  <si>
+    <t>자세히 보기</t>
+  </si>
+  <si>
+    <t>See more</t>
+  </si>
+  <si>
+    <t>詳しく見る</t>
+  </si>
+  <si>
+    <t>查看更多</t>
   </si>
   <si>
     <t>signin_agree</t>
@@ -4865,9 +4878,6 @@
     <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -4879,6 +4889,9 @@
     </xf>
     <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -14085,13 +14098,13 @@
       <c r="F219" s="181" t="s">
         <v>989</v>
       </c>
-      <c r="G219" s="182" t="s">
+      <c r="G219" s="180" t="s">
         <v>990</v>
       </c>
-      <c r="H219" s="182" t="s">
+      <c r="H219" s="180" t="s">
         <v>991</v>
       </c>
-      <c r="I219" s="182" t="s">
+      <c r="I219" s="180" t="s">
         <v>992</v>
       </c>
       <c r="J219" s="165"/>
@@ -14113,23 +14126,23 @@
       <c r="Z219" s="147"/>
     </row>
     <row r="220">
-      <c r="A220" s="183"/>
-      <c r="B220" s="184"/>
-      <c r="C220" s="185" t="s">
+      <c r="A220" s="182"/>
+      <c r="B220" s="183"/>
+      <c r="C220" s="184" t="s">
         <v>993</v>
       </c>
       <c r="D220" s="178"/>
       <c r="E220" s="178"/>
-      <c r="F220" s="186" t="s">
+      <c r="F220" s="185" t="s">
         <v>994</v>
       </c>
-      <c r="G220" s="182" t="s">
+      <c r="G220" s="186" t="s">
         <v>995</v>
       </c>
-      <c r="H220" s="182" t="s">
+      <c r="H220" s="186" t="s">
         <v>996</v>
       </c>
-      <c r="I220" s="182" t="s">
+      <c r="I220" s="186" t="s">
         <v>997</v>
       </c>
       <c r="J220" s="187"/>
@@ -14151,61 +14164,61 @@
       <c r="Z220" s="187"/>
     </row>
     <row r="221">
-      <c r="A221" s="43"/>
-      <c r="B221" s="116"/>
-      <c r="C221" s="188" t="s">
+      <c r="A221" s="182"/>
+      <c r="B221" s="183"/>
+      <c r="C221" s="184" t="s">
         <v>998</v>
       </c>
-      <c r="D221" s="189"/>
-      <c r="E221" s="190"/>
-      <c r="F221" s="191" t="s">
+      <c r="D221" s="178"/>
+      <c r="E221" s="178"/>
+      <c r="F221" s="179" t="s">
         <v>999</v>
       </c>
-      <c r="G221" s="192" t="s">
+      <c r="G221" s="180" t="s">
         <v>1000</v>
       </c>
-      <c r="H221" s="193" t="s">
+      <c r="H221" s="180" t="s">
         <v>1001</v>
       </c>
-      <c r="I221" s="193" t="s">
+      <c r="I221" s="180" t="s">
         <v>1002</v>
       </c>
-      <c r="J221" s="53"/>
-      <c r="K221" s="53"/>
-      <c r="L221" s="53"/>
-      <c r="M221" s="53"/>
-      <c r="N221" s="53"/>
-      <c r="O221" s="53"/>
-      <c r="P221" s="53"/>
-      <c r="Q221" s="53"/>
-      <c r="R221" s="53"/>
-      <c r="S221" s="53"/>
-      <c r="T221" s="53"/>
-      <c r="U221" s="53"/>
-      <c r="V221" s="53"/>
-      <c r="W221" s="53"/>
-      <c r="X221" s="53"/>
-      <c r="Y221" s="53"/>
-      <c r="Z221" s="53"/>
+      <c r="J221" s="187"/>
+      <c r="K221" s="187"/>
+      <c r="L221" s="187"/>
+      <c r="M221" s="187"/>
+      <c r="N221" s="187"/>
+      <c r="O221" s="187"/>
+      <c r="P221" s="187"/>
+      <c r="Q221" s="187"/>
+      <c r="R221" s="187"/>
+      <c r="S221" s="187"/>
+      <c r="T221" s="187"/>
+      <c r="U221" s="187"/>
+      <c r="V221" s="187"/>
+      <c r="W221" s="187"/>
+      <c r="X221" s="187"/>
+      <c r="Y221" s="187"/>
+      <c r="Z221" s="187"/>
     </row>
     <row r="222">
       <c r="A222" s="43"/>
       <c r="B222" s="116"/>
-      <c r="C222" s="112" t="s">
+      <c r="C222" s="188" t="s">
         <v>1003</v>
       </c>
-      <c r="D222" s="113"/>
-      <c r="E222" s="114"/>
-      <c r="F222" s="171" t="s">
+      <c r="D222" s="189"/>
+      <c r="E222" s="190"/>
+      <c r="F222" s="191" t="s">
         <v>1004</v>
       </c>
-      <c r="G222" s="69" t="s">
+      <c r="G222" s="192" t="s">
         <v>1005</v>
       </c>
-      <c r="H222" s="194" t="s">
+      <c r="H222" s="193" t="s">
         <v>1006</v>
       </c>
-      <c r="I222" s="69" t="s">
+      <c r="I222" s="193" t="s">
         <v>1007</v>
       </c>
       <c r="J222" s="53"/>
@@ -14240,10 +14253,10 @@
       <c r="G223" s="69" t="s">
         <v>1010</v>
       </c>
-      <c r="H223" s="69" t="s">
+      <c r="H223" s="194" t="s">
         <v>1011</v>
       </c>
-      <c r="I223" s="194" t="s">
+      <c r="I223" s="69" t="s">
         <v>1012</v>
       </c>
       <c r="J223" s="53"/>
@@ -14281,7 +14294,7 @@
       <c r="H224" s="69" t="s">
         <v>1016</v>
       </c>
-      <c r="I224" s="69" t="s">
+      <c r="I224" s="194" t="s">
         <v>1017</v>
       </c>
       <c r="J224" s="53"/>
@@ -14305,7 +14318,7 @@
     <row r="225">
       <c r="A225" s="43"/>
       <c r="B225" s="116"/>
-      <c r="C225" s="195" t="s">
+      <c r="C225" s="112" t="s">
         <v>1018</v>
       </c>
       <c r="D225" s="113"/>
@@ -14343,7 +14356,7 @@
     <row r="226">
       <c r="A226" s="43"/>
       <c r="B226" s="116"/>
-      <c r="C226" s="112" t="s">
+      <c r="C226" s="195" t="s">
         <v>1023</v>
       </c>
       <c r="D226" s="113"/>
@@ -14357,7 +14370,7 @@
       <c r="H226" s="69" t="s">
         <v>1026</v>
       </c>
-      <c r="I226" s="196" t="s">
+      <c r="I226" s="69" t="s">
         <v>1027</v>
       </c>
       <c r="J226" s="53"/>
@@ -14386,17 +14399,17 @@
       </c>
       <c r="D227" s="113"/>
       <c r="E227" s="114"/>
-      <c r="F227" s="197" t="s">
+      <c r="F227" s="171" t="s">
         <v>1029</v>
       </c>
-      <c r="G227" s="196" t="s">
+      <c r="G227" s="69" t="s">
         <v>1030</v>
       </c>
-      <c r="H227" s="198" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I227" s="198" t="s">
-        <v>1030</v>
+      <c r="H227" s="69" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I227" s="196" t="s">
+        <v>1032</v>
       </c>
       <c r="J227" s="53"/>
       <c r="K227" s="53"/>
@@ -14420,21 +14433,21 @@
       <c r="A228" s="43"/>
       <c r="B228" s="116"/>
       <c r="C228" s="112" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D228" s="113"/>
       <c r="E228" s="114"/>
-      <c r="F228" s="171" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G228" s="69" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H228" s="199" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I228" s="199" t="s">
-        <v>1033</v>
+      <c r="F228" s="197" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G228" s="196" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H228" s="198" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I228" s="198" t="s">
+        <v>1035</v>
       </c>
       <c r="J228" s="53"/>
       <c r="K228" s="53"/>
@@ -14458,21 +14471,21 @@
       <c r="A229" s="43"/>
       <c r="B229" s="116"/>
       <c r="C229" s="112" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D229" s="113"/>
       <c r="E229" s="114"/>
-      <c r="F229" s="200" t="s">
-        <v>1035</v>
+      <c r="F229" s="171" t="s">
+        <v>1037</v>
       </c>
       <c r="G229" s="69" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H229" s="199" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="I229" s="199" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="J229" s="53"/>
       <c r="K229" s="53"/>
@@ -14496,20 +14509,20 @@
       <c r="A230" s="43"/>
       <c r="B230" s="116"/>
       <c r="C230" s="112" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D230" s="113"/>
       <c r="E230" s="114"/>
-      <c r="F230" s="176" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G230" s="123" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H230" s="201" t="s">
+      <c r="F230" s="200" t="s">
         <v>1040</v>
       </c>
-      <c r="I230" s="123" t="s">
+      <c r="G230" s="69" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H230" s="199" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I230" s="199" t="s">
         <v>1041</v>
       </c>
       <c r="J230" s="53"/>
@@ -14538,13 +14551,13 @@
       </c>
       <c r="D231" s="113"/>
       <c r="E231" s="114"/>
-      <c r="F231" s="202" t="s">
+      <c r="F231" s="176" t="s">
         <v>1043</v>
       </c>
       <c r="G231" s="123" t="s">
         <v>1044</v>
       </c>
-      <c r="H231" s="203" t="s">
+      <c r="H231" s="201" t="s">
         <v>1045</v>
       </c>
       <c r="I231" s="123" t="s">
@@ -14576,13 +14589,13 @@
       </c>
       <c r="D232" s="113"/>
       <c r="E232" s="114"/>
-      <c r="F232" s="171" t="s">
+      <c r="F232" s="202" t="s">
         <v>1048</v>
       </c>
       <c r="G232" s="123" t="s">
         <v>1049</v>
       </c>
-      <c r="H232" s="204" t="s">
+      <c r="H232" s="203" t="s">
         <v>1050</v>
       </c>
       <c r="I232" s="123" t="s">
@@ -14617,13 +14630,13 @@
       <c r="F233" s="171" t="s">
         <v>1053</v>
       </c>
-      <c r="G233" s="205" t="s">
+      <c r="G233" s="123" t="s">
         <v>1054</v>
       </c>
-      <c r="H233" s="206" t="s">
+      <c r="H233" s="204" t="s">
         <v>1055</v>
       </c>
-      <c r="I233" s="205" t="s">
+      <c r="I233" s="123" t="s">
         <v>1056</v>
       </c>
       <c r="J233" s="53"/>
@@ -14655,13 +14668,13 @@
       <c r="F234" s="171" t="s">
         <v>1058</v>
       </c>
-      <c r="G234" s="123" t="s">
+      <c r="G234" s="205" t="s">
         <v>1059</v>
       </c>
-      <c r="H234" s="204" t="s">
+      <c r="H234" s="206" t="s">
         <v>1060</v>
       </c>
-      <c r="I234" s="123" t="s">
+      <c r="I234" s="205" t="s">
         <v>1061</v>
       </c>
       <c r="J234" s="53"/>
@@ -14693,7 +14706,7 @@
       <c r="F235" s="171" t="s">
         <v>1063</v>
       </c>
-      <c r="G235" s="69" t="s">
+      <c r="G235" s="123" t="s">
         <v>1064</v>
       </c>
       <c r="H235" s="204" t="s">
@@ -14731,7 +14744,7 @@
       <c r="F236" s="171" t="s">
         <v>1068</v>
       </c>
-      <c r="G236" s="123" t="s">
+      <c r="G236" s="69" t="s">
         <v>1069</v>
       </c>
       <c r="H236" s="204" t="s">
@@ -14813,7 +14826,7 @@
       <c r="H238" s="204" t="s">
         <v>1080</v>
       </c>
-      <c r="I238" s="205" t="s">
+      <c r="I238" s="123" t="s">
         <v>1081</v>
       </c>
       <c r="J238" s="53"/>
@@ -14845,14 +14858,14 @@
       <c r="F239" s="171" t="s">
         <v>1083</v>
       </c>
-      <c r="G239" s="207" t="s">
+      <c r="G239" s="123" t="s">
         <v>1084</v>
       </c>
-      <c r="H239" s="206" t="s">
-        <v>595</v>
-      </c>
-      <c r="I239" s="207" t="s">
+      <c r="H239" s="204" t="s">
         <v>1085</v>
+      </c>
+      <c r="I239" s="205" t="s">
+        <v>1086</v>
       </c>
       <c r="J239" s="53"/>
       <c r="K239" s="53"/>
@@ -14876,18 +14889,18 @@
       <c r="A240" s="43"/>
       <c r="B240" s="116"/>
       <c r="C240" s="112" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D240" s="113"/>
       <c r="E240" s="114"/>
       <c r="F240" s="171" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G240" s="207" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H240" s="206" t="s">
-        <v>1089</v>
+        <v>595</v>
       </c>
       <c r="I240" s="207" t="s">
         <v>1090</v>
@@ -14959,14 +14972,14 @@
       <c r="F242" s="171" t="s">
         <v>1097</v>
       </c>
-      <c r="G242" s="171" t="s">
-        <v>1097</v>
+      <c r="G242" s="207" t="s">
+        <v>1098</v>
       </c>
       <c r="H242" s="206" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="I242" s="207" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="J242" s="53"/>
       <c r="K242" s="53"/>
@@ -14990,21 +15003,21 @@
       <c r="A243" s="43"/>
       <c r="B243" s="116"/>
       <c r="C243" s="112" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D243" s="113"/>
       <c r="E243" s="114"/>
       <c r="F243" s="171" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G243" s="171" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H243" s="206" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I243" s="207" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="J243" s="53"/>
       <c r="K243" s="53"/>
@@ -15028,20 +15041,20 @@
       <c r="A244" s="43"/>
       <c r="B244" s="116"/>
       <c r="C244" s="112" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D244" s="113"/>
       <c r="E244" s="114"/>
       <c r="F244" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G244" s="69" t="s">
         <v>1106</v>
       </c>
-      <c r="H244" s="69" t="s">
+      <c r="G244" s="171" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H244" s="206" t="s">
         <v>1107</v>
       </c>
-      <c r="I244" s="69" t="s">
+      <c r="I244" s="207" t="s">
         <v>1108</v>
       </c>
       <c r="J244" s="53"/>
@@ -15111,13 +15124,13 @@
       <c r="F246" s="171" t="s">
         <v>1115</v>
       </c>
-      <c r="G246" s="208" t="s">
+      <c r="G246" s="69" t="s">
         <v>1116</v>
       </c>
-      <c r="H246" s="146" t="s">
+      <c r="H246" s="69" t="s">
         <v>1117</v>
       </c>
-      <c r="I246" s="199" t="s">
+      <c r="I246" s="69" t="s">
         <v>1118</v>
       </c>
       <c r="J246" s="53"/>
@@ -15152,7 +15165,7 @@
       <c r="G247" s="208" t="s">
         <v>1121</v>
       </c>
-      <c r="H247" s="209" t="s">
+      <c r="H247" s="146" t="s">
         <v>1122</v>
       </c>
       <c r="I247" s="199" t="s">
@@ -15190,7 +15203,7 @@
       <c r="G248" s="208" t="s">
         <v>1126</v>
       </c>
-      <c r="H248" s="146" t="s">
+      <c r="H248" s="209" t="s">
         <v>1127</v>
       </c>
       <c r="I248" s="199" t="s">
@@ -15229,10 +15242,10 @@
         <v>1131</v>
       </c>
       <c r="H249" s="146" t="s">
-        <v>517</v>
+        <v>1132</v>
       </c>
       <c r="I249" s="199" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="J249" s="53"/>
       <c r="K249" s="53"/>
@@ -15256,18 +15269,18 @@
       <c r="A250" s="43"/>
       <c r="B250" s="116"/>
       <c r="C250" s="112" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D250" s="113"/>
       <c r="E250" s="114"/>
       <c r="F250" s="171" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G250" s="210" t="s">
         <v>1135</v>
       </c>
-      <c r="H250" s="211" t="s">
+      <c r="G250" s="208" t="s">
         <v>1136</v>
+      </c>
+      <c r="H250" s="146" t="s">
+        <v>517</v>
       </c>
       <c r="I250" s="199" t="s">
         <v>1137</v>
@@ -15304,7 +15317,7 @@
       <c r="G251" s="210" t="s">
         <v>1140</v>
       </c>
-      <c r="H251" s="212" t="s">
+      <c r="H251" s="211" t="s">
         <v>1141</v>
       </c>
       <c r="I251" s="199" t="s">
@@ -15339,10 +15352,10 @@
       <c r="F252" s="171" t="s">
         <v>1144</v>
       </c>
-      <c r="G252" s="208" t="s">
+      <c r="G252" s="210" t="s">
         <v>1145</v>
       </c>
-      <c r="H252" s="213" t="s">
+      <c r="H252" s="212" t="s">
         <v>1146</v>
       </c>
       <c r="I252" s="199" t="s">
@@ -15369,7 +15382,7 @@
     <row r="253">
       <c r="A253" s="43"/>
       <c r="B253" s="116"/>
-      <c r="C253" s="117" t="s">
+      <c r="C253" s="112" t="s">
         <v>1148</v>
       </c>
       <c r="D253" s="113"/>
@@ -15380,7 +15393,7 @@
       <c r="G253" s="208" t="s">
         <v>1150</v>
       </c>
-      <c r="H253" s="146" t="s">
+      <c r="H253" s="213" t="s">
         <v>1151</v>
       </c>
       <c r="I253" s="199" t="s">
@@ -15407,7 +15420,7 @@
     <row r="254">
       <c r="A254" s="43"/>
       <c r="B254" s="116"/>
-      <c r="C254" s="112" t="s">
+      <c r="C254" s="117" t="s">
         <v>1153</v>
       </c>
       <c r="D254" s="113"/>
@@ -15415,10 +15428,10 @@
       <c r="F254" s="171" t="s">
         <v>1154</v>
       </c>
-      <c r="G254" s="69" t="s">
+      <c r="G254" s="208" t="s">
         <v>1155</v>
       </c>
-      <c r="H254" s="212" t="s">
+      <c r="H254" s="146" t="s">
         <v>1156</v>
       </c>
       <c r="I254" s="199" t="s">
@@ -15450,13 +15463,13 @@
       </c>
       <c r="D255" s="113"/>
       <c r="E255" s="114"/>
-      <c r="F255" s="176" t="s">
+      <c r="F255" s="171" t="s">
         <v>1159</v>
       </c>
-      <c r="G255" s="214" t="s">
+      <c r="G255" s="69" t="s">
         <v>1160</v>
       </c>
-      <c r="H255" s="214" t="s">
+      <c r="H255" s="212" t="s">
         <v>1161</v>
       </c>
       <c r="I255" s="199" t="s">
@@ -15488,13 +15501,13 @@
       </c>
       <c r="D256" s="113"/>
       <c r="E256" s="114"/>
-      <c r="F256" s="171" t="s">
+      <c r="F256" s="176" t="s">
         <v>1164</v>
       </c>
-      <c r="G256" s="69" t="s">
+      <c r="G256" s="214" t="s">
         <v>1165</v>
       </c>
-      <c r="H256" s="213" t="s">
+      <c r="H256" s="214" t="s">
         <v>1166</v>
       </c>
       <c r="I256" s="199" t="s">
@@ -15529,14 +15542,14 @@
       <c r="F257" s="171" t="s">
         <v>1169</v>
       </c>
-      <c r="G257" s="215" t="s">
+      <c r="G257" s="69" t="s">
         <v>1170</v>
       </c>
-      <c r="H257" s="69" t="s">
-        <v>1170</v>
+      <c r="H257" s="213" t="s">
+        <v>1171</v>
       </c>
       <c r="I257" s="199" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="J257" s="53"/>
       <c r="K257" s="53"/>
@@ -15560,17 +15573,17 @@
       <c r="A258" s="43"/>
       <c r="B258" s="116"/>
       <c r="C258" s="112" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D258" s="113"/>
       <c r="E258" s="114"/>
       <c r="F258" s="171" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G258" s="208" t="s">
         <v>1174</v>
       </c>
-      <c r="H258" s="146" t="s">
+      <c r="G258" s="215" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H258" s="69" t="s">
         <v>1175</v>
       </c>
       <c r="I258" s="199" t="s">
@@ -15605,10 +15618,10 @@
       <c r="F259" s="171" t="s">
         <v>1178</v>
       </c>
-      <c r="G259" s="210" t="s">
+      <c r="G259" s="208" t="s">
         <v>1179</v>
       </c>
-      <c r="H259" s="216" t="s">
+      <c r="H259" s="146" t="s">
         <v>1180</v>
       </c>
       <c r="I259" s="199" t="s">
@@ -15640,18 +15653,20 @@
       </c>
       <c r="D260" s="113"/>
       <c r="E260" s="114"/>
-      <c r="F260" s="136" t="s">
+      <c r="F260" s="171" t="s">
         <v>1183</v>
       </c>
-      <c r="G260" s="217" t="s">
+      <c r="G260" s="210" t="s">
         <v>1184</v>
       </c>
-      <c r="H260" s="217" t="s">
+      <c r="H260" s="216" t="s">
         <v>1185</v>
       </c>
-      <c r="I260" s="218" t="s">
+      <c r="I260" s="199" t="s">
         <v>1186</v>
       </c>
+      <c r="J260" s="53"/>
+      <c r="K260" s="53"/>
       <c r="L260" s="53"/>
       <c r="M260" s="53"/>
       <c r="N260" s="53"/>
@@ -15676,20 +15691,18 @@
       </c>
       <c r="D261" s="113"/>
       <c r="E261" s="114"/>
-      <c r="F261" s="171" t="s">
+      <c r="F261" s="136" t="s">
         <v>1188</v>
       </c>
-      <c r="G261" s="219" t="s">
+      <c r="G261" s="217" t="s">
         <v>1189</v>
       </c>
-      <c r="H261" s="147" t="s">
+      <c r="H261" s="217" t="s">
         <v>1190</v>
       </c>
-      <c r="I261" s="199" t="s">
+      <c r="I261" s="218" t="s">
         <v>1191</v>
       </c>
-      <c r="J261" s="53"/>
-      <c r="K261" s="53"/>
       <c r="L261" s="53"/>
       <c r="M261" s="53"/>
       <c r="N261" s="53"/>
@@ -15714,13 +15727,13 @@
       </c>
       <c r="D262" s="113"/>
       <c r="E262" s="114"/>
-      <c r="F262" s="220" t="s">
+      <c r="F262" s="171" t="s">
         <v>1193</v>
       </c>
-      <c r="G262" s="210" t="s">
+      <c r="G262" s="219" t="s">
         <v>1194</v>
       </c>
-      <c r="H262" s="209" t="s">
+      <c r="H262" s="147" t="s">
         <v>1195</v>
       </c>
       <c r="I262" s="199" t="s">
@@ -15752,13 +15765,13 @@
       </c>
       <c r="D263" s="113"/>
       <c r="E263" s="114"/>
-      <c r="F263" s="221" t="s">
+      <c r="F263" s="220" t="s">
         <v>1198</v>
       </c>
       <c r="G263" s="210" t="s">
         <v>1199</v>
       </c>
-      <c r="H263" s="69" t="s">
+      <c r="H263" s="209" t="s">
         <v>1200</v>
       </c>
       <c r="I263" s="199" t="s">
@@ -15790,13 +15803,13 @@
       </c>
       <c r="D264" s="113"/>
       <c r="E264" s="114"/>
-      <c r="F264" s="220" t="s">
+      <c r="F264" s="221" t="s">
         <v>1203</v>
       </c>
-      <c r="G264" s="208" t="s">
+      <c r="G264" s="210" t="s">
         <v>1204</v>
       </c>
-      <c r="H264" s="209" t="s">
+      <c r="H264" s="69" t="s">
         <v>1205</v>
       </c>
       <c r="I264" s="199" t="s">
@@ -15823,13 +15836,23 @@
     <row r="265">
       <c r="A265" s="43"/>
       <c r="B265" s="116"/>
-      <c r="C265" s="112"/>
+      <c r="C265" s="112" t="s">
+        <v>1207</v>
+      </c>
       <c r="D265" s="113"/>
       <c r="E265" s="114"/>
-      <c r="F265" s="171"/>
-      <c r="G265" s="222"/>
-      <c r="H265" s="222"/>
-      <c r="I265" s="222"/>
+      <c r="F265" s="220" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G265" s="208" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H265" s="209" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I265" s="199" t="s">
+        <v>1211</v>
+      </c>
       <c r="J265" s="53"/>
       <c r="K265" s="53"/>
       <c r="L265" s="53"/>
@@ -15851,10 +15874,10 @@
     <row r="266">
       <c r="A266" s="43"/>
       <c r="B266" s="116"/>
-      <c r="C266" s="114"/>
+      <c r="C266" s="112"/>
       <c r="D266" s="113"/>
       <c r="E266" s="114"/>
-      <c r="F266" s="223"/>
+      <c r="F266" s="171"/>
       <c r="G266" s="222"/>
       <c r="H266" s="222"/>
       <c r="I266" s="222"/>
@@ -37997,7 +38020,7 @@
       <c r="Z1056" s="53"/>
     </row>
     <row r="1057">
-      <c r="A1057" s="224"/>
+      <c r="A1057" s="43"/>
       <c r="B1057" s="116"/>
       <c r="C1057" s="114"/>
       <c r="D1057" s="113"/>
@@ -38024,11 +38047,39 @@
       <c r="Y1057" s="53"/>
       <c r="Z1057" s="53"/>
     </row>
+    <row r="1058">
+      <c r="A1058" s="224"/>
+      <c r="B1058" s="116"/>
+      <c r="C1058" s="114"/>
+      <c r="D1058" s="113"/>
+      <c r="E1058" s="114"/>
+      <c r="F1058" s="223"/>
+      <c r="G1058" s="222"/>
+      <c r="H1058" s="222"/>
+      <c r="I1058" s="222"/>
+      <c r="J1058" s="53"/>
+      <c r="K1058" s="53"/>
+      <c r="L1058" s="53"/>
+      <c r="M1058" s="53"/>
+      <c r="N1058" s="53"/>
+      <c r="O1058" s="53"/>
+      <c r="P1058" s="53"/>
+      <c r="Q1058" s="53"/>
+      <c r="R1058" s="53"/>
+      <c r="S1058" s="53"/>
+      <c r="T1058" s="53"/>
+      <c r="U1058" s="53"/>
+      <c r="V1058" s="53"/>
+      <c r="W1058" s="53"/>
+      <c r="X1058" s="53"/>
+      <c r="Y1058" s="53"/>
+      <c r="Z1058" s="53"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$B$4:$K$264"/>
+  <autoFilter ref="$B$4:$K$265"/>
   <customSheetViews>
-    <customSheetView guid="{AF48EAA2-6E95-4895-9117-13F3B57B36BF}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$B$4:$K$264">
+    <customSheetView guid="{09B11071-B402-46A9-9F7C-014B2FBC51F2}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$B$4:$K$265">
         <filterColumn colId="4">
           <colorFilter dxfId="1"/>
         </filterColumn>
@@ -38063,22 +38114,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="225" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="C1" s="225" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="D1" s="225" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="E1" s="225" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="F1" s="225" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="G1" s="226" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="H1" s="227"/>
       <c r="I1" s="227"/>
@@ -38102,21 +38153,21 @@
     </row>
     <row r="2">
       <c r="A2" s="227" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B2" s="227"/>
       <c r="C2" s="227"/>
       <c r="D2" s="176" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="E2" s="228" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="F2" s="229" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="H2" s="227"/>
       <c r="I2" s="227"/>
@@ -38144,10 +38195,10 @@
       <c r="C3" s="227"/>
       <c r="D3" s="227"/>
       <c r="E3" s="228" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="F3" s="231" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G3" s="232"/>
       <c r="H3" s="227"/>
@@ -38176,10 +38227,10 @@
       <c r="C4" s="227"/>
       <c r="D4" s="227"/>
       <c r="E4" s="228" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="F4" s="231" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="G4" s="232"/>
       <c r="H4" s="227"/>
@@ -38208,10 +38259,10 @@
       <c r="C5" s="227"/>
       <c r="D5" s="227"/>
       <c r="E5" s="228" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="F5" s="233" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="H5" s="227"/>
       <c r="I5" s="227"/>
@@ -38239,10 +38290,10 @@
       <c r="C6" s="227"/>
       <c r="D6" s="227"/>
       <c r="E6" s="228" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="F6" s="233" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="G6" s="234"/>
       <c r="H6" s="227"/>
@@ -38271,10 +38322,10 @@
       <c r="C7" s="227"/>
       <c r="D7" s="227"/>
       <c r="E7" s="235" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="G7" s="234"/>
       <c r="H7" s="227"/>
@@ -38303,10 +38354,10 @@
       <c r="C8" s="227"/>
       <c r="D8" s="227"/>
       <c r="E8" s="237" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="F8" s="237" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="227"/>
@@ -38335,10 +38386,10 @@
       <c r="C9" s="227"/>
       <c r="D9" s="227"/>
       <c r="E9" s="237" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="F9" s="237" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="G9" s="238"/>
       <c r="H9" s="227"/>
@@ -38370,7 +38421,7 @@
         <v>515</v>
       </c>
       <c r="F10" s="240" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="G10" s="238"/>
       <c r="H10" s="227"/>
@@ -38402,7 +38453,7 @@
         <v>515</v>
       </c>
       <c r="F11" s="237" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="227"/>
@@ -38434,7 +38485,7 @@
         <v>515</v>
       </c>
       <c r="F12" s="241" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="G12" s="238"/>
       <c r="H12" s="227"/>
@@ -38463,10 +38514,10 @@
       <c r="C13" s="227"/>
       <c r="D13" s="227"/>
       <c r="E13" s="237" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="F13" s="237" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="227"/>
@@ -38495,10 +38546,10 @@
       <c r="C14" s="227"/>
       <c r="D14" s="227"/>
       <c r="E14" s="237" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="F14" s="237" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="G14" s="147"/>
       <c r="H14" s="227"/>
@@ -38530,7 +38581,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="237" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="G15" s="147"/>
       <c r="H15" s="227"/>
@@ -38562,7 +38613,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="237" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="G16" s="147"/>
       <c r="H16" s="227"/>
@@ -38594,7 +38645,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="237" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="G17" s="147"/>
       <c r="H17" s="227"/>
@@ -38623,10 +38674,10 @@
       <c r="C18" s="227"/>
       <c r="D18" s="227"/>
       <c r="E18" s="242" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="F18" s="237" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="227"/>
@@ -38679,18 +38730,18 @@
     </row>
     <row r="20">
       <c r="A20" s="230" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="B20" s="227"/>
       <c r="C20" s="227"/>
       <c r="D20" s="230" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="E20" s="230" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="F20" s="238" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="G20" s="147"/>
       <c r="H20" s="227"/>
@@ -38719,10 +38770,10 @@
       <c r="C21" s="227"/>
       <c r="D21" s="227"/>
       <c r="E21" s="230" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="F21" s="238" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="G21" s="238"/>
       <c r="H21" s="227"/>
@@ -38751,10 +38802,10 @@
       <c r="C22" s="227"/>
       <c r="D22" s="227"/>
       <c r="E22" s="230" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="F22" s="245" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="G22" s="238"/>
       <c r="H22" s="227"/>
@@ -38807,18 +38858,18 @@
     </row>
     <row r="24">
       <c r="A24" s="246" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="B24" s="227"/>
       <c r="C24" s="227"/>
       <c r="D24" s="246" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="E24" s="176" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="F24" s="176" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="G24" s="247"/>
       <c r="H24" s="227"/>
@@ -38847,10 +38898,10 @@
       <c r="C25" s="227"/>
       <c r="D25" s="227"/>
       <c r="E25" s="176" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="F25" s="176" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="G25" s="147"/>
       <c r="H25" s="227"/>
@@ -38879,10 +38930,10 @@
       <c r="C26" s="227"/>
       <c r="D26" s="227"/>
       <c r="E26" s="176" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="F26" s="176" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="227"/>
@@ -38911,10 +38962,10 @@
       <c r="C27" s="227"/>
       <c r="D27" s="227"/>
       <c r="E27" s="176" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="F27" s="176" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="227"/>
@@ -38943,10 +38994,10 @@
       <c r="C28" s="227"/>
       <c r="D28" s="227"/>
       <c r="E28" s="176" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="F28" s="176" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="227"/>
@@ -38975,10 +39026,10 @@
       <c r="C29" s="227"/>
       <c r="D29" s="227"/>
       <c r="E29" s="246" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="F29" s="248" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="G29" s="147"/>
       <c r="H29" s="227"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">string!$B$4:$K$265</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_09B11071_B402_46A9_9F7C_014B2FBC51F2_.wvu.FilterData">string!$B$4:$K$265</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4123A1C5_DDA3_4E27_8BE3_ECEB371B839B_.wvu.FilterData">string!$B$4:$K$265</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{09B11071-B402-46A9-9F7C-014B2FBC51F2}" name="필터 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4123A1C5-DDA3-4E27-8BE3-ECEB371B839B}" name="필터 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2997,7 +2997,7 @@
     <t>NeoLAB Cloud is now open!</t>
   </si>
   <si>
-    <t>NeoLAB Cloudがオープンしまし\nた！</t>
+    <t>NeoLAB Cloudがオープンしました！</t>
   </si>
   <si>
     <t>NeoLAB Cloud開業了！</t>
@@ -38078,7 +38078,7 @@
   </sheetData>
   <autoFilter ref="$B$4:$K$265"/>
   <customSheetViews>
-    <customSheetView guid="{09B11071-B402-46A9-9F7C-014B2FBC51F2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4123A1C5-DDA3-4E27-8BE3-ECEB371B839B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$4:$K$265">
         <filterColumn colId="4">
           <colorFilter dxfId="1"/>
